--- a/biology/Histoire de la zoologie et de la botanique/Pietro_Rossi/Pietro_Rossi.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pietro_Rossi/Pietro_Rossi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pietro Rossi est un médecin et un zoologiste italien, né en 1738 à Florence et mort le 21 décembre 1804 à Pise.
 Il enseigne la logique à l’université de Pise de 1762 à 1801, puis l’histoire naturelle et se consacre à l’entomologie. Il est considéré comme le premier professeur d’entomologie du monde.
@@ -516,7 +528,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1790 : Fauna etrusca.
 1792 : Mantissa Insectorum.</t>
@@ -547,7 +561,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cesare Conci et Roberto Poggi (1996), Iconography of Italian Entomologists, with essential biographical data. Memorie della Società entomologica Italiana, 75 : 159-382.  (ISSN 0037-8747)
  Portail de l’histoire de la zoologie et de la botanique   Portail de l’entomologie   Portail de la zoologie                   </t>
